--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43167,6 +43167,43 @@
         <v>800</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43204,6 +43204,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43241,6 +43241,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43278,6 +43278,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>122500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43313,6 +43313,41 @@
         <v>122500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43348,6 +43348,43 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43385,6 +43385,41 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43420,6 +43420,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>140200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43455,6 +43455,43 @@
         <v>140200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43492,6 +43492,43 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43529,6 +43529,41 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>230000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43564,6 +43564,41 @@
         <v>230000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43599,6 +43599,76 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>966900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43669,6 +43669,76 @@
         <v>966900</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>11600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43739,6 +43739,41 @@
         <v>11600</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>25300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43774,6 +43774,41 @@
         <v>25300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>106200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43809,6 +43809,41 @@
         <v>106200</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>689800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43844,6 +43844,41 @@
         <v>689800</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1073400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43879,6 +43879,76 @@
         <v>1073400</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>665100</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>304800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43949,6 +43949,41 @@
         <v>304800</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>335000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43984,6 +43984,41 @@
         <v>335000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>573100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1842"/>
+  <dimension ref="A1:I1843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65054,6 +65054,41 @@
         <v>573100</v>
       </c>
     </row>
+    <row r="1843">
+      <c r="A1843" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1843" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1843" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1843" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1843" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1843" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1843" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1843" t="n">
+        <v>573900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1843"/>
+  <dimension ref="A1:I1844"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65089,6 +65089,41 @@
         <v>573900</v>
       </c>
     </row>
+    <row r="1844">
+      <c r="A1844" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1844" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1844" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1844" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1844" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1844" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1844" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1844" t="n">
+        <v>196000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1844"/>
+  <dimension ref="A1:I1845"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65124,6 +65124,41 @@
         <v>196000</v>
       </c>
     </row>
+    <row r="1845">
+      <c r="A1845" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1845" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1845" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1845" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1845" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1845" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1845" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1845" t="n">
+        <v>117600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1845"/>
+  <dimension ref="A1:I1846"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65159,6 +65159,41 @@
         <v>117600</v>
       </c>
     </row>
+    <row r="1846">
+      <c r="A1846" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1846" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1846" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1846" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1846" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1846" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1846" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1846" t="n">
+        <v>1702400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1846"/>
+  <dimension ref="A1:I1847"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65194,6 +65194,41 @@
         <v>1702400</v>
       </c>
     </row>
+    <row r="1847">
+      <c r="A1847" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1847" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1847" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1847" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1847" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1847" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1847" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1847" t="n">
+        <v>216100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1847"/>
+  <dimension ref="A1:I1848"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65229,6 +65229,41 @@
         <v>216100</v>
       </c>
     </row>
+    <row r="1848">
+      <c r="A1848" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1848" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1848" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1848" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1848" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1848" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1848" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1848" t="n">
+        <v>209800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1848"/>
+  <dimension ref="A1:I1849"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65264,6 +65264,41 @@
         <v>209800</v>
       </c>
     </row>
+    <row r="1849">
+      <c r="A1849" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1849" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1849" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1849" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1849" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1849" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1849" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1849" t="n">
+        <v>186100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1849"/>
+  <dimension ref="A1:I1850"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65299,6 +65299,41 @@
         <v>186100</v>
       </c>
     </row>
+    <row r="1850">
+      <c r="A1850" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1850" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1850" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1850" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1850" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1850" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1850" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1850" t="n">
+        <v>572800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1850"/>
+  <dimension ref="A1:I1851"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65334,6 +65334,41 @@
         <v>572800</v>
       </c>
     </row>
+    <row r="1851">
+      <c r="A1851" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1851" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1851" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1851" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1851" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1851" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1851" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1851" t="n">
+        <v>590000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1851"/>
+  <dimension ref="A1:I1852"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65369,6 +65369,41 @@
         <v>590000</v>
       </c>
     </row>
+    <row r="1852">
+      <c r="A1852" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1852" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1852" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1852" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1852" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1852" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1852" t="n">
+        <v>380100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1852"/>
+  <dimension ref="A1:I1853"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65404,6 +65404,43 @@
         <v>380100</v>
       </c>
     </row>
+    <row r="1853">
+      <c r="A1853" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1853" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1853" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1853" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1853" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1853" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1853" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1853" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1853"/>
+  <dimension ref="A1:I1854"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65441,6 +65441,43 @@
         </is>
       </c>
     </row>
+    <row r="1854">
+      <c r="A1854" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1854" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1854" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1854" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1854" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1854" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1854" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1854" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1854"/>
+  <dimension ref="A1:I1855"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65478,6 +65478,43 @@
         </is>
       </c>
     </row>
+    <row r="1855">
+      <c r="A1855" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1855" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1855" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1855" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1855" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1855" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1855" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1855" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1855"/>
+  <dimension ref="A1:I1856"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65515,6 +65515,41 @@
         </is>
       </c>
     </row>
+    <row r="1856">
+      <c r="A1856" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1856" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1856" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1856" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1856" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1856" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1856" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1856" t="n">
+        <v>740800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1856"/>
+  <dimension ref="A1:I1857"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65550,6 +65550,41 @@
         <v>740800</v>
       </c>
     </row>
+    <row r="1857">
+      <c r="A1857" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1857" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1857" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1857" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1857" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1857" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1857" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1857" t="n">
+        <v>473600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1890"/>
+  <dimension ref="A1:I1891"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66740,6 +66740,41 @@
         <v>473600</v>
       </c>
     </row>
+    <row r="1891">
+      <c r="A1891" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1891" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1891" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1891" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1891" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1891" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1891" t="n">
+        <v>419600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1891"/>
+  <dimension ref="A1:I1892"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66775,6 +66775,41 @@
         <v>419600</v>
       </c>
     </row>
+    <row r="1892">
+      <c r="A1892" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1892" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1892" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1892" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1892" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1892" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1892" t="n">
+        <v>2659500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1892"/>
+  <dimension ref="A1:I1893"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66810,6 +66810,41 @@
         <v>2659500</v>
       </c>
     </row>
+    <row r="1893">
+      <c r="A1893" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1893" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1893" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1893" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1893" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1893" t="n">
+        <v>842200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1893"/>
+  <dimension ref="A1:I1894"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66845,6 +66845,41 @@
         <v>842200</v>
       </c>
     </row>
+    <row r="1894">
+      <c r="A1894" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1894" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1894" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1894" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1894" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1894" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1894" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1894" t="n">
+        <v>382000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1894"/>
+  <dimension ref="A1:I1895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66880,6 +66880,41 @@
         <v>382000</v>
       </c>
     </row>
+    <row r="1895">
+      <c r="A1895" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1895" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1895" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1895" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1895" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1895" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1895" t="n">
+        <v>37000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1895"/>
+  <dimension ref="A1:I1896"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66915,6 +66915,41 @@
         <v>37000</v>
       </c>
     </row>
+    <row r="1896">
+      <c r="A1896" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1896" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1896" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1896" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1896" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1896" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1896" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1896" t="n">
+        <v>304600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1896"/>
+  <dimension ref="A1:I1897"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66950,6 +66950,41 @@
         <v>304600</v>
       </c>
     </row>
+    <row r="1897">
+      <c r="A1897" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1897" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1897" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1897" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1897" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1897" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1897" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1897" t="n">
+        <v>191400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1897"/>
+  <dimension ref="A1:I1898"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66985,6 +66985,41 @@
         <v>191400</v>
       </c>
     </row>
+    <row r="1898">
+      <c r="A1898" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1898" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1898" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1898" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1898" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1898" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1898" t="n">
+        <v>106900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1898"/>
+  <dimension ref="A1:I1899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67020,6 +67020,41 @@
         <v>106900</v>
       </c>
     </row>
+    <row r="1899">
+      <c r="A1899" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1899" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1899" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1899" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1899" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1899" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1899" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1899" t="n">
+        <v>273100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1899"/>
+  <dimension ref="A1:I1900"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67055,6 +67055,41 @@
         <v>273100</v>
       </c>
     </row>
+    <row r="1900">
+      <c r="A1900" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1900" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1900" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1900" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1900" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1900" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1900" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1900" t="n">
+        <v>2955700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1900"/>
+  <dimension ref="A1:I1902"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67090,6 +67090,76 @@
         <v>2955700</v>
       </c>
     </row>
+    <row r="1901">
+      <c r="A1901" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1901" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1901" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1901" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1901" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1901" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1901" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1901" t="n">
+        <v>870800</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1902" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1902" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1902" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1902" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1902" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1902" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1902" t="n">
+        <v>844000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1902"/>
+  <dimension ref="A1:I1903"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67160,6 +67160,41 @@
         <v>844000</v>
       </c>
     </row>
+    <row r="1903">
+      <c r="A1903" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1903" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1903" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1903" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1903" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1903" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1903" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1903" t="n">
+        <v>404200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1903"/>
+  <dimension ref="A1:I1906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67195,6 +67195,111 @@
         <v>404200</v>
       </c>
     </row>
+    <row r="1904">
+      <c r="A1904" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1904" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1904" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1904" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1904" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1904" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1904" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1904" t="n">
+        <v>356000</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1905" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1905" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1905" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1905" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1905" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1905" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1905" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1906" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1906" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1906" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1906" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1906" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1906" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1906" t="n">
+        <v>3169700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1906"/>
+  <dimension ref="A1:I1907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67300,6 +67300,41 @@
         <v>3169700</v>
       </c>
     </row>
+    <row r="1907">
+      <c r="A1907" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1907" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1907" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1907" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1907" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1907" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1907" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1907" t="n">
+        <v>594200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1907"/>
+  <dimension ref="A1:I1908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67335,6 +67335,41 @@
         <v>594200</v>
       </c>
     </row>
+    <row r="1908">
+      <c r="A1908" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1908" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1908" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1908" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1908" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1908" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1908" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1908" t="n">
+        <v>659800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0148.xlsx
+++ b/data/0148.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1908"/>
+  <dimension ref="A1:I1911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67370,6 +67370,111 @@
         <v>659800</v>
       </c>
     </row>
+    <row r="1909">
+      <c r="A1909" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1909" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1909" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1909" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1909" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1909" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1909" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1909" t="n">
+        <v>156200</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1910" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1910" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1910" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1910" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1910" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1910" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1910" t="n">
+        <v>194600</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1911" t="inlineStr">
+        <is>
+          <t>0148</t>
+        </is>
+      </c>
+      <c r="D1911" t="inlineStr">
+        <is>
+          <t>SUNZEN</t>
+        </is>
+      </c>
+      <c r="E1911" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1911" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1911" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1911" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1911" t="n">
+        <v>634700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
